--- a/app/excel/LETTER_NUMBER_MATCH.xlsx
+++ b/app/excel/LETTER_NUMBER_MATCH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blah blah blah...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,19 +130,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A construction worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>works at a construction site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2</t>
+    <t>and builds buildings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A miner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>works in a mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">and risks his life to get coal. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Occupations and workplaces.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions and answers. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +254,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -202,11 +299,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,27 +606,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="8.125" customWidth="1"/>
-    <col min="12" max="12" width="49.625" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="49.625" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -537,34 +638,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -572,37 +673,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -610,31 +711,31 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -642,31 +743,31 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -674,69 +775,72 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -744,34 +848,34 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -779,34 +883,104 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
